--- a/IRCS3_local/Output/IRCS_Control17.3_UL_Conv.xlsx
+++ b/IRCS3_local/Output/IRCS_Control17.3_UL_Conv.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="32">
   <si>
     <t>Valuation Year</t>
   </si>
@@ -85,6 +85,9 @@
     <t>GS</t>
   </si>
   <si>
+    <t>Grand Total Summary</t>
+  </si>
+  <si>
     <t>GOC</t>
   </si>
   <si>
@@ -107,9 +110,6 @@
   </si>
   <si>
     <t>Total All from DV</t>
-  </si>
-  <si>
-    <t>Grand Total Summary</t>
   </si>
   <si>
     <t>Check</t>
@@ -125,6 +125,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* (#,##0)_);_(* &quot;-&quot;_);_(@_)"/>
+  </numFmts>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -189,7 +192,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -197,6 +200,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
@@ -511,19 +515,25 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
+      <c r="B1" s="2">
+        <v>2025</v>
+      </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
+      <c r="B2" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="2">
+        <v>16233</v>
+      </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="3" t="s">
@@ -597,11 +607,53 @@
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="B7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="5">
+        <v>544097</v>
+      </c>
+      <c r="D7" s="5">
+        <v>13609937480695.61</v>
+      </c>
+      <c r="E7" s="5">
+        <v>531888</v>
+      </c>
+      <c r="F7" s="5">
+        <v>17806777664896.75</v>
+      </c>
+      <c r="G7" s="5">
+        <v>12209</v>
+      </c>
+      <c r="H7" s="5">
+        <v>-4196840184201.141</v>
+      </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="B8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="5">
+        <v>544097</v>
+      </c>
+      <c r="D8" s="5">
+        <v>12121654359261.68</v>
+      </c>
+      <c r="E8" s="5">
+        <v>544091</v>
+      </c>
+      <c r="F8" s="5">
+        <v>16995150968996.62</v>
+      </c>
+      <c r="G8" s="5">
+        <v>6</v>
+      </c>
+      <c r="H8" s="5">
+        <v>-4873496609734.941</v>
+      </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="2" t="s">
@@ -617,15 +669,78 @@
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="B11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="5">
+        <v>580115</v>
+      </c>
+      <c r="D11" s="5">
+        <v>13656417944276.48</v>
+      </c>
+      <c r="E11" s="5">
+        <v>580113</v>
+      </c>
+      <c r="F11" s="5">
+        <v>18394840952377.11</v>
+      </c>
+      <c r="G11" s="5">
+        <v>2</v>
+      </c>
+      <c r="H11" s="5">
+        <v>-4738423008100.627</v>
+      </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="B12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="5">
+        <v>544097</v>
+      </c>
+      <c r="D12" s="5">
+        <v>12121654359261.68</v>
+      </c>
+      <c r="E12" s="5">
+        <v>544091</v>
+      </c>
+      <c r="F12" s="5">
+        <v>16973833409696.59</v>
+      </c>
+      <c r="G12" s="5">
+        <v>6</v>
+      </c>
+      <c r="H12" s="5">
+        <v>-4852179050434.906</v>
+      </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="2" t="s">
         <v>11</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="5">
+        <v>544097</v>
+      </c>
+      <c r="D13" s="5">
+        <v>12121654359261.68</v>
+      </c>
+      <c r="E13" s="5">
+        <v>544091</v>
+      </c>
+      <c r="F13" s="5">
+        <v>16973833409696.59</v>
+      </c>
+      <c r="G13" s="5">
+        <v>6</v>
+      </c>
+      <c r="H13" s="5">
+        <v>-4852179050434.906</v>
       </c>
     </row>
   </sheetData>
@@ -656,100 +771,100 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:24">
-      <c r="B3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="R3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="S3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="T3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="U3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="V3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="W3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="X3" s="5" t="s">
-        <v>26</v>
+      <c r="B3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="S3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="U3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="V3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="W3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="X3" s="6" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="2:24">
-      <c r="B4" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="J4" s="6" t="s">
+      <c r="B4" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="R4" s="6" t="s">
+      <c r="R4" s="7" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="5" spans="2:24">
-      <c r="B5" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="R5" s="6" t="s">
-        <v>28</v>
+      <c r="B5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="R5" s="7" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="2:24">
-      <c r="B6" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="R6" s="6" t="s">
+      <c r="B6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="R6" s="7" t="s">
         <v>29</v>
       </c>
     </row>
@@ -799,100 +914,100 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:24">
-      <c r="B3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="R3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="S3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="T3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="U3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="V3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="W3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="X3" s="5" t="s">
-        <v>26</v>
+      <c r="B3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="S3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="U3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="V3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="W3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="X3" s="6" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="2:24">
-      <c r="B4" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="J4" s="6" t="s">
+      <c r="B4" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="R4" s="6" t="s">
+      <c r="R4" s="7" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="5" spans="2:24">
-      <c r="B5" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="R5" s="6" t="s">
-        <v>28</v>
+      <c r="B5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="R5" s="7" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="2:24">
-      <c r="B6" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="R6" s="6" t="s">
+      <c r="B6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="R6" s="7" t="s">
         <v>29</v>
       </c>
     </row>
@@ -918,100 +1033,100 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:24">
-      <c r="B3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="R3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="S3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="T3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="U3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="V3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="W3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="X3" s="5" t="s">
-        <v>26</v>
+      <c r="B3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="S3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="U3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="V3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="W3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="X3" s="6" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="2:24">
-      <c r="B4" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="J4" s="6" t="s">
+      <c r="B4" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="R4" s="6" t="s">
+      <c r="R4" s="7" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="5" spans="2:24">
-      <c r="B5" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="R5" s="6" t="s">
-        <v>28</v>
+      <c r="B5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="R5" s="7" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="2:24">
-      <c r="B6" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="R6" s="6" t="s">
+      <c r="B6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="R6" s="7" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1037,100 +1152,100 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:24">
-      <c r="B3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="R3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="S3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="T3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="U3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="V3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="W3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="X3" s="5" t="s">
-        <v>26</v>
+      <c r="B3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="S3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="U3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="V3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="W3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="X3" s="6" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="2:24">
-      <c r="B4" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="J4" s="6" t="s">
+      <c r="B4" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="R4" s="6" t="s">
+      <c r="R4" s="7" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="5" spans="2:24">
-      <c r="B5" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="R5" s="6" t="s">
-        <v>28</v>
+      <c r="B5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="R5" s="7" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="2:24">
-      <c r="B6" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="R6" s="6" t="s">
+      <c r="B6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="R6" s="7" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1156,100 +1271,100 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:24">
-      <c r="B3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="R3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="S3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="T3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="U3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="V3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="W3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="X3" s="5" t="s">
-        <v>26</v>
+      <c r="B3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="S3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="U3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="V3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="W3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="X3" s="6" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="2:24">
-      <c r="B4" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="J4" s="6" t="s">
+      <c r="B4" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="R4" s="6" t="s">
+      <c r="R4" s="7" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="5" spans="2:24">
-      <c r="B5" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="R5" s="6" t="s">
-        <v>28</v>
+      <c r="B5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="R5" s="7" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="2:24">
-      <c r="B6" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="R6" s="6" t="s">
+      <c r="B6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="R6" s="7" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1275,100 +1390,100 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:24">
-      <c r="B3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="R3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="S3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="T3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="U3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="V3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="W3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="X3" s="5" t="s">
-        <v>26</v>
+      <c r="B3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="S3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="U3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="V3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="W3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="X3" s="6" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="2:24">
-      <c r="B4" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="J4" s="6" t="s">
+      <c r="B4" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="R4" s="6" t="s">
+      <c r="R4" s="7" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="5" spans="2:24">
-      <c r="B5" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="R5" s="6" t="s">
-        <v>28</v>
+      <c r="B5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="R5" s="7" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="2:24">
-      <c r="B6" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="R6" s="6" t="s">
+      <c r="B6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="R6" s="7" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1394,100 +1509,100 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:24">
-      <c r="B3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="R3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="S3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="T3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="U3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="V3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="W3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="X3" s="5" t="s">
-        <v>26</v>
+      <c r="B3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="S3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="U3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="V3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="W3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="X3" s="6" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="2:24">
-      <c r="B4" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="J4" s="6" t="s">
+      <c r="B4" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="R4" s="6" t="s">
+      <c r="R4" s="7" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="5" spans="2:24">
-      <c r="B5" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="R5" s="6" t="s">
-        <v>28</v>
+      <c r="B5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="R5" s="7" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="2:24">
-      <c r="B6" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="R6" s="6" t="s">
+      <c r="B6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="R6" s="7" t="s">
         <v>29</v>
       </c>
     </row>

--- a/IRCS3_local/Output/IRCS_Control17.3_UL_Conv.xlsx
+++ b/IRCS3_local/Output/IRCS_Control17.3_UL_Conv.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="32">
   <si>
     <t>Valuation Year</t>
   </si>
@@ -515,25 +515,19 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>2025</v>
-      </c>
+      <c r="B1" s="2"/>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
-        <v>6</v>
-      </c>
+      <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
-        <v>16233</v>
-      </c>
+      <c r="B3" s="2"/>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="3" t="s">
@@ -659,10 +653,52 @@
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="B9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="5">
+        <v>544097</v>
+      </c>
+      <c r="D9" s="5">
+        <v>13609937480695.61</v>
+      </c>
+      <c r="E9" s="5">
+        <v>6272</v>
+      </c>
+      <c r="F9" s="5">
+        <v>310072541616.2886</v>
+      </c>
+      <c r="G9" s="5">
+        <v>537825</v>
+      </c>
+      <c r="H9" s="5">
+        <v>13299864939079.32</v>
+      </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="2" t="s">
         <v>8</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="5">
+        <v>544097</v>
+      </c>
+      <c r="D10" s="5">
+        <v>13609937480695.61</v>
+      </c>
+      <c r="E10" s="5">
+        <v>5931</v>
+      </c>
+      <c r="F10" s="5">
+        <v>178070096201.7842</v>
+      </c>
+      <c r="G10" s="5">
+        <v>538166</v>
+      </c>
+      <c r="H10" s="5">
+        <v>13431867384493.83</v>
       </c>
     </row>
     <row r="11" spans="1:14">
